--- a/data/ITD.xlsx
+++ b/data/ITD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>ITD</t>
@@ -2168,7 +2168,7 @@
         <v>4.02749447618E11</v>
       </c>
       <c r="AS12" s="13" t="n">
-        <v>3.87371680708E11</v>
+        <v>3.8713359014E11</v>
       </c>
     </row>
     <row r="13">
@@ -3240,7 +3240,7 @@
         <v>2.20655784816E11</v>
       </c>
       <c r="AS20" s="13" t="n">
-        <v>2.29533108218E11</v>
+        <v>2.29130000427E11</v>
       </c>
     </row>
     <row r="21">
@@ -4044,7 +4044,7 @@
         <v>6.660363398E9</v>
       </c>
       <c r="AS26" s="13" t="n">
-        <v>7.665715472E9</v>
+        <v>7.668207681E9</v>
       </c>
     </row>
     <row r="27">
@@ -4178,7 +4178,7 @@
         <v>-8.5243307291E10</v>
       </c>
       <c r="AS27" s="13" t="n">
-        <v>-8.5160384073E10</v>
+        <v>-8.5565984073E10</v>
       </c>
     </row>
     <row r="28">
@@ -4446,7 +4446,7 @@
         <v>8.1624079982E10</v>
       </c>
       <c r="AS29" s="13" t="n">
-        <v>6.7663768657E10</v>
+        <v>6.7820070357E10</v>
       </c>
     </row>
     <row r="30">
@@ -4580,7 +4580,7 @@
         <v>1.00571967994E11</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>8.5441161518E10</v>
+        <v>8.5597463218E10</v>
       </c>
     </row>
     <row r="31">
@@ -4848,7 +4848,7 @@
         <v>1.2246243572E10</v>
       </c>
       <c r="AS32" s="13" t="n">
-        <v>9.100832129E9</v>
+        <v>9.109547652E9</v>
       </c>
     </row>
     <row r="33">
@@ -5116,7 +5116,7 @@
         <v>8.746293224E9</v>
       </c>
       <c r="AS34" s="13" t="n">
-        <v>6.801041365E9</v>
+        <v>6.801236081E9</v>
       </c>
     </row>
     <row r="35">
@@ -5250,7 +5250,7 @@
         <v>2.09440511E8</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>1.02886027E8</v>
+        <v>1.11406834E8</v>
       </c>
     </row>
     <row r="36">
@@ -5652,7 +5652,7 @@
         <v>1.34046520843E11</v>
       </c>
       <c r="AS38" s="13" t="n">
-        <v>1.31651978727E11</v>
+        <v>1.31620718399E11</v>
       </c>
     </row>
     <row r="39">
@@ -6858,7 +6858,7 @@
         <v>6.6181749998E10</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>6.5832675199E10</v>
+        <v>6.5832675213E10</v>
       </c>
     </row>
     <row r="48">
@@ -6992,7 +6992,7 @@
         <v>5.2165431851E10</v>
       </c>
       <c r="AS48" s="13" t="n">
-        <v>5.2136247868E10</v>
+        <v>5.2136247882E10</v>
       </c>
     </row>
     <row r="49">
@@ -7260,7 +7260,7 @@
         <v>-5.6011619056E10</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>-5.4321005312E10</v>
+        <v>-5.4321005298E10</v>
       </c>
     </row>
     <row r="51">
@@ -10074,7 +10074,7 @@
         <v>6.4472821382E10</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>6.2381033467E10</v>
+        <v>6.2349773125E10</v>
       </c>
     </row>
     <row r="72">
@@ -10342,7 +10342,7 @@
         <v>1.36077469E8</v>
       </c>
       <c r="AS73" s="13" t="n">
-        <v>1.66498462E8</v>
+        <v>1.35238118E8</v>
       </c>
     </row>
     <row r="74">
@@ -10744,7 +10744,7 @@
         <v>6.2196547074E10</v>
       </c>
       <c r="AS76" s="13" t="n">
-        <v>6.0123328838E10</v>
+        <v>6.012332884E10</v>
       </c>
     </row>
     <row r="77">
@@ -10878,7 +10878,7 @@
         <v>5.36795968461E11</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>5.19023659435E11</v>
+        <v>5.18754308539E11</v>
       </c>
     </row>
     <row r="78">
@@ -11012,7 +11012,7 @@
         <v>1.31008378603E11</v>
       </c>
       <c r="AS78" s="13" t="n">
-        <v>1.08286794999E11</v>
+        <v>1.08216688015E11</v>
       </c>
     </row>
     <row r="79">
@@ -11146,7 +11146,7 @@
         <v>1.21418295832E11</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>9.831086018E10</v>
+        <v>9.8321873196E10</v>
       </c>
     </row>
     <row r="80">
@@ -11548,7 +11548,7 @@
         <v>5.568067933E9</v>
       </c>
       <c r="AS82" s="13" t="n">
-        <v>5.756385667E9</v>
+        <v>5.764906474E9</v>
       </c>
     </row>
     <row r="83">
@@ -12352,7 +12352,7 @@
         <v>4.346308587E9</v>
       </c>
       <c r="AS88" s="13" t="n">
-        <v>5.164673266E9</v>
+        <v>5.167165475E9</v>
       </c>
     </row>
     <row r="89">
@@ -13156,7 +13156,7 @@
         <v>9.590082771E9</v>
       </c>
       <c r="AS94" s="13" t="n">
-        <v>9.975934819E9</v>
+        <v>9.894814819E9</v>
       </c>
     </row>
     <row r="95">
@@ -14544,7 +14544,7 @@
         <v>3.88092E9</v>
       </c>
       <c r="AS105" s="13" t="n">
-        <v>4.15852E9</v>
+        <v>4.0774E9</v>
       </c>
     </row>
     <row r="106">
@@ -15080,7 +15080,7 @@
         <v>4.05787589858E11</v>
       </c>
       <c r="AS109" s="13" t="n">
-        <v>4.10736864436E11</v>
+        <v>4.10537620524E11</v>
       </c>
     </row>
     <row r="110">
@@ -15214,7 +15214,7 @@
         <v>4.05787589858E11</v>
       </c>
       <c r="AS110" s="13" t="n">
-        <v>4.10736864436E11</v>
+        <v>4.10537620524E11</v>
       </c>
     </row>
     <row r="111">
@@ -17090,7 +17090,7 @@
         <v>5.0624219573E10</v>
       </c>
       <c r="AS124" s="13" t="n">
-        <v>3.7367215011E10</v>
+        <v>3.716416853E10</v>
       </c>
     </row>
     <row r="125">
@@ -17224,7 +17224,7 @@
         <v>5.0620723463E10</v>
       </c>
       <c r="AS125" s="13" t="n">
-        <v>3.3254049639E10</v>
+        <v>3.2923824288E10</v>
       </c>
     </row>
     <row r="126">
@@ -17358,7 +17358,7 @@
         <v>3496110.0</v>
       </c>
       <c r="AS126" s="13" t="n">
-        <v>4.113165372E9</v>
+        <v>4.240344242E9</v>
       </c>
     </row>
     <row r="127">
@@ -17492,7 +17492,7 @@
         <v>1.06449240285E11</v>
       </c>
       <c r="AS127" s="13" t="n">
-        <v>1.07541479425E11</v>
+        <v>1.07545281994E11</v>
       </c>
     </row>
     <row r="128">
@@ -18296,7 +18296,7 @@
         <v>5.36795968461E11</v>
       </c>
       <c r="AS133" s="13" t="n">
-        <v>5.19023659435E11</v>
+        <v>5.18754308539E11</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -19116,7 +19116,7 @@
         <v>-6.5971866313E10</v>
       </c>
       <c r="AS15" s="17" t="n">
-        <v>-9.9052474762E10</v>
+        <v>-9.8896173062E10</v>
       </c>
     </row>
     <row r="16">
@@ -19250,7 +19250,7 @@
         <v>3.20272885E10</v>
       </c>
       <c r="AS16" s="17" t="n">
-        <v>4.3829861403E10</v>
+        <v>4.3986163103E10</v>
       </c>
     </row>
     <row r="17">
@@ -19518,7 +19518,7 @@
         <v>-1.813076872E9</v>
       </c>
       <c r="AS18" s="17" t="n">
-        <v>-6.28618238E8</v>
+        <v>-6.29058924E8</v>
       </c>
     </row>
     <row r="19">
@@ -19652,7 +19652,7 @@
         <v>-1.225567749E9</v>
       </c>
       <c r="AS19" s="17" t="n">
-        <v>-4.56476344E8</v>
+        <v>-3.72433544E8</v>
       </c>
     </row>
     <row r="20">
@@ -19920,7 +19920,7 @@
         <v>-1.0903347807E10</v>
       </c>
       <c r="AS21" s="17" t="n">
-        <v>-1.417271128E10</v>
+        <v>-1.4169891281E10</v>
       </c>
     </row>
     <row r="22">
@@ -20054,7 +20054,7 @@
         <v>-1.331567767E10</v>
       </c>
       <c r="AS22" s="17" t="n">
-        <v>-1.6768476339E10</v>
+        <v>-1.6767840936E10</v>
       </c>
     </row>
     <row r="23">
@@ -20188,7 +20188,7 @@
         <v>7.132595598E9</v>
       </c>
       <c r="AS23" s="17" t="n">
-        <v>1.3268648236E10</v>
+        <v>1.3427964652E10</v>
       </c>
     </row>
     <row r="24">
@@ -20322,7 +20322,7 @@
         <v>3.8726024E7</v>
       </c>
       <c r="AS24" s="17" t="n">
-        <v>9.15462323E8</v>
+        <v>9.15459688E8</v>
       </c>
     </row>
     <row r="25">
@@ -20590,7 +20590,7 @@
         <v>-7659488.0</v>
       </c>
       <c r="AS26" s="17" t="n">
-        <v>-2.59550774E8</v>
+        <v>-2.59553409E8</v>
       </c>
     </row>
     <row r="27">
@@ -20858,7 +20858,7 @@
         <v>7.171321622E9</v>
       </c>
       <c r="AS28" s="17" t="n">
-        <v>1.4184110559E10</v>
+        <v>1.434342434E10</v>
       </c>
     </row>
     <row r="29">
@@ -20992,7 +20992,7 @@
         <v>-1.766423877E9</v>
       </c>
       <c r="AS29" s="17" t="n">
-        <v>-2.70503048E9</v>
+        <v>-2.736854819E9</v>
       </c>
     </row>
     <row r="30">
@@ -21260,7 +21260,7 @@
         <v>-6336747.0</v>
       </c>
       <c r="AS31" s="17" t="n">
-        <v>-2.47179007E8</v>
+        <v>-2.79003346E8</v>
       </c>
     </row>
     <row r="32">
@@ -21394,7 +21394,7 @@
         <v>5.404897745E9</v>
       </c>
       <c r="AS32" s="17" t="n">
-        <v>1.1479080079E10</v>
+        <v>1.1606569521E10</v>
       </c>
     </row>
     <row r="33">
@@ -21528,7 +21528,7 @@
         <v>5.401401635E9</v>
       </c>
       <c r="AS33" s="17" t="n">
-        <v>7.369410817E9</v>
+        <v>7.369721389E9</v>
       </c>
     </row>
     <row r="34">
@@ -21662,7 +21662,7 @@
         <v>3496110.0</v>
       </c>
       <c r="AS34" s="17" t="n">
-        <v>4.109669262E9</v>
+        <v>4.236848132E9</v>
       </c>
     </row>
     <row r="35">
@@ -21796,7 +21796,7 @@
         <v>0.0</v>
       </c>
       <c r="AS35" s="17" t="n">
-        <v>157.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -22341,7 +22341,7 @@
         <v>7.171321622E9</v>
       </c>
       <c r="AR12" s="21" t="n">
-        <v>1.4184110559E10</v>
+        <v>1.434342434E10</v>
       </c>
     </row>
     <row r="13">
@@ -22472,7 +22472,7 @@
         <v>1.722682378E9</v>
       </c>
       <c r="AR13" s="21" t="n">
-        <v>1.744646422E9</v>
+        <v>5.891082893E9</v>
       </c>
     </row>
     <row r="14">
@@ -22734,7 +22734,7 @@
         <v>-9.14349804E8</v>
       </c>
       <c r="AR15" s="21" t="n">
-        <v>-2.476120172E9</v>
+        <v>-2.478940172E9</v>
       </c>
     </row>
     <row r="16">
@@ -22865,7 +22865,7 @@
         <v>6414678.0</v>
       </c>
       <c r="AR16" s="21" t="n">
-        <v>7.141652E7</v>
+        <v>834330.0</v>
       </c>
     </row>
     <row r="17">
@@ -23127,7 +23127,7 @@
         <v>-5.85670735E8</v>
       </c>
       <c r="AR18" s="21" t="n">
-        <v>-1.589688498E9</v>
+        <v>-1.586904201E9</v>
       </c>
     </row>
     <row r="19">
@@ -23258,7 +23258,7 @@
         <v>1.225567749E9</v>
       </c>
       <c r="AR19" s="21" t="n">
-        <v>4.34050986E8</v>
+        <v>3.72433544E8</v>
       </c>
     </row>
     <row r="20">
@@ -23520,7 +23520,7 @@
         <v>2.073218236E9</v>
       </c>
       <c r="AR21" s="21" t="n">
-        <v>2.073218236E9</v>
+        <v>-2.073218236E9</v>
       </c>
     </row>
     <row r="22">
@@ -23651,7 +23651,7 @@
         <v>1.15422442435E11</v>
       </c>
       <c r="AR22" s="21" t="n">
-        <v>-1.444083229E9</v>
+        <v>-4.193237641E9</v>
       </c>
     </row>
     <row r="23">
@@ -23782,7 +23782,7 @@
         <v>1.0699184124E10</v>
       </c>
       <c r="AR23" s="21" t="n">
-        <v>1.4441634053E10</v>
+        <v>1.4468712498E10</v>
       </c>
     </row>
     <row r="24">
@@ -23913,7 +23913,7 @@
         <v>1.78635192672E11</v>
       </c>
       <c r="AR24" s="21" t="n">
-        <v>-5.42080729E8</v>
+        <v>-1.0049690249E10</v>
       </c>
     </row>
     <row r="25">
@@ -24044,7 +24044,7 @@
         <v>-3.5365181968E10</v>
       </c>
       <c r="AR25" s="21" t="n">
-        <v>1.5130806476E10</v>
+        <v>1.4974504776E10</v>
       </c>
     </row>
     <row r="26">
@@ -24175,7 +24175,7 @@
         <v>-2.5388069327E10</v>
       </c>
       <c r="AR26" s="21" t="n">
-        <v>-2.8443807647E10</v>
+        <v>-2.0726296911E10</v>
       </c>
     </row>
     <row r="27">
@@ -24568,7 +24568,7 @@
         <v>-1.528327142E9</v>
       </c>
       <c r="AR29" s="21" t="n">
-        <v>-4.26152356E8</v>
+        <v>-3.72622585E8</v>
       </c>
     </row>
     <row r="30">
@@ -24830,7 +24830,7 @@
         <v>0.0</v>
       </c>
       <c r="AR31" s="21" t="n">
-        <v>8.59323E7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -24961,7 +24961,7 @@
         <v>-2.679334E8</v>
       </c>
       <c r="AR32" s="21" t="n">
-        <v>-4.264541E8</v>
+        <v>-1.223883944E9</v>
       </c>
     </row>
     <row r="33">
@@ -25092,7 +25092,7 @@
         <v>-1.247687347E9</v>
       </c>
       <c r="AR33" s="21" t="n">
-        <v>1.663173738E9</v>
+        <v>9.088014754E9</v>
       </c>
     </row>
     <row r="34">
@@ -25223,7 +25223,7 @@
         <v>-2.02122553E8</v>
       </c>
       <c r="AR34" s="21" t="n">
-        <v>-1.436244426E9</v>
+        <v>-1.349236819E9</v>
       </c>
     </row>
     <row r="35">
@@ -25354,7 +25354,7 @@
         <v>4.8229917E7</v>
       </c>
       <c r="AR35" s="21" t="n">
-        <v>9.24651011E8</v>
+        <v>9.34322728E8</v>
       </c>
     </row>
     <row r="36">
@@ -25747,7 +25747,7 @@
         <v>-5.33555E9</v>
       </c>
       <c r="AR38" s="21" t="n">
-        <v>-2.0823655E9</v>
+        <v>5.33555E9</v>
       </c>
     </row>
     <row r="39">
@@ -26009,7 +26009,7 @@
         <v>6.71303048E8</v>
       </c>
       <c r="AR40" s="21" t="n">
-        <v>8.5124425E8</v>
+        <v>7.61490442E8</v>
       </c>
     </row>
     <row r="41">
@@ -26140,7 +26140,7 @@
         <v>-1.15903792013E11</v>
       </c>
       <c r="AR41" s="21" t="n">
-        <v>-4.845745803E9</v>
+        <v>-9.592546967E9</v>
       </c>
     </row>
     <row r="42">
@@ -26402,7 +26402,7 @@
         <v>0.0</v>
       </c>
       <c r="AR43" s="21" t="n">
-        <v>0.0</v>
+        <v>-7.4179155E9</v>
       </c>
     </row>
     <row r="44">
@@ -26533,7 +26533,7 @@
         <v>5.8949297666E10</v>
       </c>
       <c r="AR44" s="21" t="n">
-        <v>1.8732549686E10</v>
+        <v>2.1432549686E10</v>
       </c>
     </row>
     <row r="45">
@@ -26664,7 +26664,7 @@
         <v>-1.71340409679E11</v>
       </c>
       <c r="AR45" s="21" t="n">
-        <v>-1.6799075488E10</v>
+        <v>-1.9426325488E10</v>
       </c>
     </row>
     <row r="46">
@@ -26926,7 +26926,7 @@
         <v>-3.51268E9</v>
       </c>
       <c r="AR47" s="21" t="n">
-        <v>-6.979220001E9</v>
+        <v>-4.380855665E9</v>
       </c>
     </row>
     <row r="48">
@@ -27188,7 +27188,7 @@
         <v>-1.729036925E9</v>
       </c>
       <c r="AR49" s="21" t="n">
-        <v>-4.626655294E9</v>
+        <v>-4.697769854E9</v>
       </c>
     </row>
     <row r="50">
@@ -27450,7 +27450,7 @@
         <v>-6414678.0</v>
       </c>
       <c r="AR51" s="21" t="n">
-        <v>-5.4664853E7</v>
+        <v>1.6449707E7</v>
       </c>
     </row>
     <row r="52">
@@ -29435,7 +29435,7 @@
         <v>6.660363398E9</v>
       </c>
       <c r="AO24" s="25" t="n">
-        <v>7.665715472E9</v>
+        <v>7.668207681E9</v>
       </c>
     </row>
     <row r="25">
@@ -29923,7 +29923,7 @@
         <v>6.660363398E9</v>
       </c>
       <c r="AO28" s="25" t="n">
-        <v>7.665715472E9</v>
+        <v>7.668207681E9</v>
       </c>
     </row>
     <row r="29">
@@ -30045,7 +30045,7 @@
         <v>1.00571967994E11</v>
       </c>
       <c r="AO29" s="25" t="n">
-        <v>8.5441161518E10</v>
+        <v>8.5597463218E10</v>
       </c>
     </row>
     <row r="30">
@@ -30533,7 +30533,7 @@
         <v>7.7958918638E10</v>
       </c>
       <c r="AO33" s="25" t="n">
-        <v>5.9907984111E10</v>
+        <v>6.0064285811E10</v>
       </c>
     </row>
     <row r="34">
@@ -30655,7 +30655,7 @@
         <v>0.0</v>
       </c>
       <c r="AO34" s="25" t="n">
-        <v>0.0</v>
+        <v>2.84900215E8</v>
       </c>
     </row>
     <row r="35">
@@ -30777,7 +30777,7 @@
         <v>1.9969506665E10</v>
       </c>
       <c r="AO35" s="25" t="n">
-        <v>1.8876690466E10</v>
+        <v>1.8591790251E10</v>
       </c>
     </row>
     <row r="36">
@@ -32973,7 +32973,7 @@
         <v>5.6011619056E10</v>
       </c>
       <c r="AO53" s="25" t="n">
-        <v>5.4321005312E10</v>
+        <v>5.4321005298E10</v>
       </c>
     </row>
     <row r="54">
@@ -33217,7 +33217,7 @@
         <v>1.404047077E9</v>
       </c>
       <c r="AO55" s="25" t="n">
-        <v>2.829680515E9</v>
+        <v>2.829680501E9</v>
       </c>
     </row>
     <row r="56">
@@ -36511,7 +36511,7 @@
         <v>8.2928729434E10</v>
       </c>
       <c r="AO82" s="25" t="n">
-        <v>0.0</v>
+        <v>8.2928729434E10</v>
       </c>
     </row>
     <row r="83">
@@ -36633,7 +36633,7 @@
         <v>8.2928729434E10</v>
       </c>
       <c r="AO83" s="25" t="n">
-        <v>0.0</v>
+        <v>8.2928729434E10</v>
       </c>
     </row>
     <row r="84">
@@ -36999,7 +36999,7 @@
         <v>2.073218236E10</v>
       </c>
       <c r="AO86" s="25" t="n">
-        <v>0.0</v>
+        <v>2.2805400594E10</v>
       </c>
     </row>
     <row r="87">
@@ -37121,7 +37121,7 @@
         <v>1.8658964122E10</v>
       </c>
       <c r="AO87" s="25" t="n">
-        <v>0.0</v>
+        <v>1.8658964122E10</v>
       </c>
     </row>
     <row r="88">
@@ -37243,7 +37243,7 @@
         <v>2.073218238E9</v>
       </c>
       <c r="AO88" s="25" t="n">
-        <v>0.0</v>
+        <v>4.146436472E9</v>
       </c>
     </row>
     <row r="89">
@@ -37487,7 +37487,7 @@
         <v>5.568067933E9</v>
       </c>
       <c r="AO90" s="25" t="n">
-        <v>5.756385667E9</v>
+        <v>5.764906474E9</v>
       </c>
     </row>
     <row r="91">
@@ -37975,7 +37975,7 @@
         <v>3.451566323E9</v>
       </c>
       <c r="AO94" s="25" t="n">
-        <v>4.190353062E9</v>
+        <v>4.198873866E9</v>
       </c>
     </row>
     <row r="95">
@@ -38097,7 +38097,7 @@
         <v>1.940803863E9</v>
       </c>
       <c r="AO95" s="25" t="n">
-        <v>1.193285528E9</v>
+        <v>1.193285531E9</v>
       </c>
     </row>
     <row r="96">
@@ -39317,7 +39317,7 @@
         <v>4.346308587E9</v>
       </c>
       <c r="AO105" s="25" t="n">
-        <v>5.164673266E9</v>
+        <v>5.167165475E9</v>
       </c>
     </row>
     <row r="106">
@@ -39561,7 +39561,7 @@
         <v>0.0</v>
       </c>
       <c r="AO107" s="25" t="n">
-        <v>0.0</v>
+        <v>7.54802E7</v>
       </c>
     </row>
     <row r="108">
@@ -40171,7 +40171,7 @@
         <v>4.19543665E8</v>
       </c>
       <c r="AO112" s="25" t="n">
-        <v>2.8540344E8</v>
+        <v>3.0475344E8</v>
       </c>
     </row>
     <row r="113">
@@ -40415,7 +40415,7 @@
         <v>3.926764922E9</v>
       </c>
       <c r="AO114" s="25" t="n">
-        <v>4.879269826E9</v>
+        <v>4.786931835E9</v>
       </c>
     </row>
     <row r="115">
@@ -41757,7 +41757,7 @@
         <v>9.7999154813E10</v>
       </c>
       <c r="AO125" s="25" t="n">
-        <v>1.42882336165E11</v>
+        <v>1.0342066302E10</v>
       </c>
     </row>
     <row r="126">
@@ -41879,7 +41879,7 @@
         <v>0.0</v>
       </c>
       <c r="AO126" s="25" t="n">
-        <v>0.0</v>
+        <v>1.32540269863E11</v>
       </c>
     </row>
     <row r="127">
@@ -42977,7 +42977,7 @@
         <v>6.5971866313E10</v>
       </c>
       <c r="AO135" s="25" t="n">
-        <v>9.9052474762E10</v>
+        <v>9.8896173062E10</v>
       </c>
     </row>
     <row r="136">
@@ -43099,7 +43099,7 @@
         <v>6.5971866313E10</v>
       </c>
       <c r="AO136" s="25" t="n">
-        <v>9.9052474762E10</v>
+        <v>2.6148892187E10</v>
       </c>
     </row>
     <row r="137">
@@ -43221,7 +43221,7 @@
         <v>0.0</v>
       </c>
       <c r="AO137" s="25" t="n">
-        <v>0.0</v>
+        <v>2.81922106E8</v>
       </c>
     </row>
     <row r="138">
@@ -43343,7 +43343,7 @@
         <v>0.0</v>
       </c>
       <c r="AO138" s="25" t="n">
-        <v>0.0</v>
+        <v>7.2711993776E10</v>
       </c>
     </row>
     <row r="139">
@@ -43953,7 +43953,7 @@
         <v>0.0</v>
       </c>
       <c r="AO143" s="25" t="n">
-        <v>0.0</v>
+        <v>-2.46635007E8</v>
       </c>
     </row>
     <row r="144">
@@ -44197,7 +44197,7 @@
         <v>0.0</v>
       </c>
       <c r="AO145" s="25" t="n">
-        <v>0.0</v>
+        <v>1.247887119E9</v>
       </c>
     </row>
     <row r="146">
@@ -45173,7 +45173,7 @@
         <v>1.137409447E9</v>
       </c>
       <c r="AO153" s="25" t="n">
-        <v>1.00859269E9</v>
+        <v>-2.39294429E8</v>
       </c>
     </row>
     <row r="154">
@@ -45295,7 +45295,7 @@
         <v>1.813076872E9</v>
       </c>
       <c r="AO154" s="25" t="n">
-        <v>6.28618238E8</v>
+        <v>6.29058924E8</v>
       </c>
     </row>
     <row r="155">
@@ -45417,7 +45417,7 @@
         <v>1.225567749E9</v>
       </c>
       <c r="AO155" s="25" t="n">
-        <v>4.56476344E8</v>
+        <v>3.72433544E8</v>
       </c>
     </row>
     <row r="156">
@@ -46271,7 +46271,7 @@
         <v>5.87509123E8</v>
       </c>
       <c r="AO162" s="25" t="n">
-        <v>1.72141894E8</v>
+        <v>2.5662538E8</v>
       </c>
     </row>
     <row r="163">

--- a/data/ITD.xlsx
+++ b/data/ITD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>ITD</t>

--- a/data/ITD.xlsx
+++ b/data/ITD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>ITD</t>

--- a/data/ITD.xlsx
+++ b/data/ITD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>ITD</t>
